--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.218968</v>
+        <v>2.641124333333333</v>
       </c>
       <c r="N2">
-        <v>6.656904000000001</v>
+        <v>7.923373</v>
       </c>
       <c r="O2">
-        <v>0.2104718379039321</v>
+        <v>0.2973163964900306</v>
       </c>
       <c r="P2">
-        <v>0.2170284397425394</v>
+        <v>0.3204448291201116</v>
       </c>
       <c r="Q2">
-        <v>54.85685425581601</v>
+        <v>77.14593618087123</v>
       </c>
       <c r="R2">
-        <v>493.7116883023441</v>
+        <v>694.313425627841</v>
       </c>
       <c r="S2">
-        <v>0.00282210616712495</v>
+        <v>0.005439396629766816</v>
       </c>
       <c r="T2">
-        <v>0.002920830692574902</v>
+        <v>0.005898838273321096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.878757</v>
       </c>
       <c r="O3">
-        <v>0.2174861810061461</v>
+        <v>0.258118258924649</v>
       </c>
       <c r="P3">
-        <v>0.2242612930993252</v>
+        <v>0.2781974433645584</v>
       </c>
       <c r="Q3">
-        <v>56.685055126253</v>
+        <v>66.97503052370767</v>
       </c>
       <c r="R3">
-        <v>510.1654961362771</v>
+        <v>602.7752747133691</v>
       </c>
       <c r="S3">
-        <v>0.002916157804266655</v>
+        <v>0.00472226760532224</v>
       </c>
       <c r="T3">
-        <v>0.003018172497660241</v>
+        <v>0.005121136549355357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.197805</v>
+        <v>0.7354653333333333</v>
       </c>
       <c r="N4">
-        <v>3.593415</v>
+        <v>2.206396</v>
       </c>
       <c r="O4">
-        <v>0.113613274188956</v>
+        <v>0.08279273334096697</v>
       </c>
       <c r="P4">
-        <v>0.1171525458076963</v>
+        <v>0.08923323301721346</v>
       </c>
       <c r="Q4">
-        <v>29.611880077535</v>
+        <v>21.48257882163689</v>
       </c>
       <c r="R4">
-        <v>266.506920697815</v>
+        <v>193.343209394732</v>
       </c>
       <c r="S4">
-        <v>0.001523380633480564</v>
+        <v>0.001514691150641398</v>
       </c>
       <c r="T4">
-        <v>0.001576672402540135</v>
+        <v>0.001642630376091416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9555215</v>
+        <v>1.9234645</v>
       </c>
       <c r="N5">
-        <v>1.911043</v>
+        <v>3.846929</v>
       </c>
       <c r="O5">
-        <v>0.09063238688512949</v>
+        <v>0.2165280621964276</v>
       </c>
       <c r="P5">
-        <v>0.06230383982868036</v>
+        <v>0.1555812790893729</v>
       </c>
       <c r="Q5">
-        <v>23.6221989969205</v>
+        <v>56.18344721238217</v>
       </c>
       <c r="R5">
-        <v>141.733193981523</v>
+        <v>337.100683274293</v>
       </c>
       <c r="S5">
-        <v>0.001215242003476608</v>
+        <v>0.003961375913557059</v>
       </c>
       <c r="T5">
-        <v>0.0008385028609741732</v>
+        <v>0.002863983813452787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.877612666666666</v>
+        <v>1.290238</v>
       </c>
       <c r="N6">
-        <v>11.632838</v>
+        <v>3.870714</v>
       </c>
       <c r="O6">
-        <v>0.3677963200158363</v>
+        <v>0.1452445490479259</v>
       </c>
       <c r="P6">
-        <v>0.3792538815217587</v>
+        <v>0.1565432154087437</v>
       </c>
       <c r="Q6">
-        <v>95.86151441383534</v>
+        <v>37.68721417234867</v>
       </c>
       <c r="R6">
-        <v>862.753629724518</v>
+        <v>339.184927551138</v>
       </c>
       <c r="S6">
-        <v>0.004931587395727122</v>
+        <v>0.002657245681402508</v>
       </c>
       <c r="T6">
-        <v>0.005104106995106378</v>
+        <v>0.002881691406965164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.218968</v>
+        <v>2.641124333333333</v>
       </c>
       <c r="N7">
-        <v>6.656904000000001</v>
+        <v>7.923373</v>
       </c>
       <c r="O7">
-        <v>0.2104718379039321</v>
+        <v>0.2973163964900306</v>
       </c>
       <c r="P7">
-        <v>0.2170284397425394</v>
+        <v>0.3204448291201116</v>
       </c>
       <c r="Q7">
-        <v>3235.878842202792</v>
+        <v>3851.501396081551</v>
       </c>
       <c r="R7">
-        <v>29122.90957982513</v>
+        <v>34663.51256473396</v>
       </c>
       <c r="S7">
-        <v>0.1664695097911389</v>
+        <v>0.2715612091902102</v>
       </c>
       <c r="T7">
-        <v>0.1722930410060397</v>
+        <v>0.2944987768596019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.878757</v>
       </c>
       <c r="O8">
-        <v>0.2174861810061461</v>
+        <v>0.258118258924649</v>
       </c>
       <c r="P8">
-        <v>0.2242612930993252</v>
+        <v>0.2781974433645584</v>
       </c>
       <c r="Q8">
         <v>3343.720179373827</v>
@@ -948,10 +948,10 @@
         <v>30093.48161436445</v>
       </c>
       <c r="S8">
-        <v>0.1720173981421941</v>
+        <v>0.235758630654599</v>
       </c>
       <c r="T8">
-        <v>0.1780350087475473</v>
+        <v>0.2556721137341919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.197805</v>
+        <v>0.7354653333333333</v>
       </c>
       <c r="N9">
-        <v>3.593415</v>
+        <v>2.206396</v>
       </c>
       <c r="O9">
-        <v>0.113613274188956</v>
+        <v>0.08279273334096697</v>
       </c>
       <c r="P9">
-        <v>0.1171525458076963</v>
+        <v>0.08923323301721346</v>
       </c>
       <c r="Q9">
-        <v>1746.736256036462</v>
+        <v>1072.515111216997</v>
       </c>
       <c r="R9">
-        <v>15720.62630432815</v>
+        <v>9652.636000952971</v>
       </c>
       <c r="S9">
-        <v>0.08986069703365486</v>
+        <v>0.07562076980503669</v>
       </c>
       <c r="T9">
-        <v>0.09300425512321014</v>
+        <v>0.08200811993426514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9555215</v>
+        <v>1.9234645</v>
       </c>
       <c r="N10">
-        <v>1.911043</v>
+        <v>3.846929</v>
       </c>
       <c r="O10">
-        <v>0.09063238688512949</v>
+        <v>0.2165280621964276</v>
       </c>
       <c r="P10">
-        <v>0.06230383982868036</v>
+        <v>0.1555812790893729</v>
       </c>
       <c r="Q10">
-        <v>1393.418834845692</v>
+        <v>2804.951706954842</v>
       </c>
       <c r="R10">
-        <v>8360.513009074151</v>
+        <v>16829.71024172905</v>
       </c>
       <c r="S10">
-        <v>0.071684312572283</v>
+        <v>0.1977712063237877</v>
       </c>
       <c r="T10">
-        <v>0.04946134268472328</v>
+        <v>0.1429840404037184</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.877612666666666</v>
+        <v>1.290238</v>
       </c>
       <c r="N11">
-        <v>11.632838</v>
+        <v>3.870714</v>
       </c>
       <c r="O11">
-        <v>0.3677963200158363</v>
+        <v>0.1452445490479259</v>
       </c>
       <c r="P11">
-        <v>0.3792538815217587</v>
+        <v>0.1565432154087437</v>
       </c>
       <c r="Q11">
-        <v>5654.648821580217</v>
+        <v>1881.529542384588</v>
       </c>
       <c r="R11">
-        <v>50891.83939422196</v>
+        <v>16933.7658814613</v>
       </c>
       <c r="S11">
-        <v>0.2909029241430749</v>
+        <v>0.1326626645330815</v>
       </c>
       <c r="T11">
-        <v>0.3010794559378679</v>
+        <v>0.1438680898366563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.218968</v>
+        <v>2.641124333333333</v>
       </c>
       <c r="N12">
-        <v>6.656904000000001</v>
+        <v>7.923373</v>
       </c>
       <c r="O12">
-        <v>0.2104718379039321</v>
+        <v>0.2973163964900306</v>
       </c>
       <c r="P12">
-        <v>0.2170284397425394</v>
+        <v>0.3204448291201116</v>
       </c>
       <c r="Q12">
-        <v>133.35951081672</v>
+        <v>153.1483130656471</v>
       </c>
       <c r="R12">
-        <v>1200.23559735048</v>
+        <v>1378.334817590824</v>
       </c>
       <c r="S12">
-        <v>0.006860668607892883</v>
+        <v>0.01079816331466478</v>
       </c>
       <c r="T12">
-        <v>0.007100672425068066</v>
+        <v>0.01171023614890298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.878757</v>
       </c>
       <c r="O13">
-        <v>0.2174861810061461</v>
+        <v>0.258118258924649</v>
       </c>
       <c r="P13">
-        <v>0.2242612930993252</v>
+        <v>0.2781974433645584</v>
       </c>
       <c r="Q13">
-        <v>137.80395038701</v>
+        <v>132.9572683929573</v>
       </c>
       <c r="R13">
-        <v>1240.23555348309</v>
+        <v>1196.615415536616</v>
       </c>
       <c r="S13">
-        <v>0.007089312420792521</v>
+        <v>0.009374535502480264</v>
       </c>
       <c r="T13">
-        <v>0.007337314786069309</v>
+        <v>0.01016636082649642</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.197805</v>
+        <v>0.7354653333333333</v>
       </c>
       <c r="N14">
-        <v>3.593415</v>
+        <v>2.206396</v>
       </c>
       <c r="O14">
-        <v>0.113613274188956</v>
+        <v>0.08279273334096697</v>
       </c>
       <c r="P14">
-        <v>0.1171525458076963</v>
+        <v>0.08923323301721346</v>
       </c>
       <c r="Q14">
-        <v>71.98782896095001</v>
+        <v>42.64671439231644</v>
       </c>
       <c r="R14">
-        <v>647.8904606485499</v>
+        <v>383.8204295308479</v>
       </c>
       <c r="S14">
-        <v>0.003703407693070443</v>
+        <v>0.003006929541853339</v>
       </c>
       <c r="T14">
-        <v>0.003832962410502834</v>
+        <v>0.003260911508014949</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9555215</v>
+        <v>1.9234645</v>
       </c>
       <c r="N15">
-        <v>1.911043</v>
+        <v>3.846929</v>
       </c>
       <c r="O15">
-        <v>0.09063238688512949</v>
+        <v>0.2165280621964276</v>
       </c>
       <c r="P15">
-        <v>0.06230383982868036</v>
+        <v>0.1555812790893729</v>
       </c>
       <c r="Q15">
-        <v>57.426641490485</v>
+        <v>111.5340689186253</v>
       </c>
       <c r="R15">
-        <v>344.55984894291</v>
+        <v>669.2044135117519</v>
       </c>
       <c r="S15">
-        <v>0.002954308651236394</v>
+        <v>0.007864031063901713</v>
       </c>
       <c r="T15">
-        <v>0.002038438639526625</v>
+        <v>0.005685513863611265</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.877612666666666</v>
+        <v>1.290238</v>
       </c>
       <c r="N16">
-        <v>11.632838</v>
+        <v>3.870714</v>
       </c>
       <c r="O16">
-        <v>0.3677963200158363</v>
+        <v>0.1452445490479259</v>
       </c>
       <c r="P16">
-        <v>0.3792538815217587</v>
+        <v>0.1565432154087437</v>
       </c>
       <c r="Q16">
-        <v>233.0437069680067</v>
+        <v>74.81577851498133</v>
       </c>
       <c r="R16">
-        <v>2097.39336271206</v>
+        <v>673.3420066348319</v>
       </c>
       <c r="S16">
-        <v>0.01198891353808068</v>
+        <v>0.005275102146063219</v>
       </c>
       <c r="T16">
-        <v>0.01240831654052453</v>
+        <v>0.005720666565219741</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.218968</v>
+        <v>2.641124333333333</v>
       </c>
       <c r="N17">
-        <v>6.656904000000001</v>
+        <v>7.923373</v>
       </c>
       <c r="O17">
-        <v>0.2104718379039321</v>
+        <v>0.2973163964900306</v>
       </c>
       <c r="P17">
-        <v>0.2170284397425394</v>
+        <v>0.3204448291201116</v>
       </c>
       <c r="Q17">
-        <v>45.42680609265601</v>
+        <v>77.86321096656833</v>
       </c>
       <c r="R17">
-        <v>272.5608365559361</v>
+        <v>467.17926579941</v>
       </c>
       <c r="S17">
-        <v>0.002336978147325717</v>
+        <v>0.005489970156320311</v>
       </c>
       <c r="T17">
-        <v>0.001612487765367514</v>
+        <v>0.003969122347169984</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.878757</v>
       </c>
       <c r="O18">
-        <v>0.2174861810061461</v>
+        <v>0.258118258924649</v>
       </c>
       <c r="P18">
-        <v>0.2242612930993252</v>
+        <v>0.2781974433645584</v>
       </c>
       <c r="Q18">
-        <v>46.940734070598</v>
+        <v>67.59773993711499</v>
       </c>
       <c r="R18">
-        <v>281.644404423588</v>
+        <v>405.58643962269</v>
       </c>
       <c r="S18">
-        <v>0.002414862042439519</v>
+        <v>0.004766173527685675</v>
       </c>
       <c r="T18">
-        <v>0.001666226747965141</v>
+        <v>0.003445834006483345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.197805</v>
+        <v>0.7354653333333333</v>
       </c>
       <c r="N19">
-        <v>3.593415</v>
+        <v>2.206396</v>
       </c>
       <c r="O19">
-        <v>0.113613274188956</v>
+        <v>0.08279273334096697</v>
       </c>
       <c r="P19">
-        <v>0.1171525458076963</v>
+        <v>0.08923323301721346</v>
       </c>
       <c r="Q19">
-        <v>24.52151426781</v>
+        <v>21.68231600655333</v>
       </c>
       <c r="R19">
-        <v>147.12908560686</v>
+        <v>130.09389603932</v>
       </c>
       <c r="S19">
-        <v>0.00126150720053533</v>
+        <v>0.001528774196674132</v>
       </c>
       <c r="T19">
-        <v>0.0008704253093312001</v>
+        <v>0.001105268636262166</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9555215</v>
+        <v>1.9234645</v>
       </c>
       <c r="N20">
-        <v>1.911043</v>
+        <v>3.846929</v>
       </c>
       <c r="O20">
-        <v>0.09063238688512949</v>
+        <v>0.2165280621964276</v>
       </c>
       <c r="P20">
-        <v>0.06230383982868036</v>
+        <v>0.1555812790893729</v>
       </c>
       <c r="Q20">
-        <v>19.561476279903</v>
+        <v>56.7058204189825</v>
       </c>
       <c r="R20">
-        <v>78.245905119612</v>
+        <v>226.82328167593</v>
       </c>
       <c r="S20">
-        <v>0.001006338471217201</v>
+        <v>0.00399820734240641</v>
       </c>
       <c r="T20">
-        <v>0.0004629079008186432</v>
+        <v>0.001927074727123951</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.877612666666666</v>
+        <v>1.290238</v>
       </c>
       <c r="N21">
-        <v>11.632838</v>
+        <v>3.870714</v>
       </c>
       <c r="O21">
-        <v>0.3677963200158363</v>
+        <v>0.1452445490479259</v>
       </c>
       <c r="P21">
-        <v>0.3792538815217587</v>
+        <v>0.1565432154087437</v>
       </c>
       <c r="Q21">
-        <v>79.382649371732</v>
+        <v>38.03761614823</v>
       </c>
       <c r="R21">
-        <v>476.295896230392</v>
+        <v>228.22569688938</v>
       </c>
       <c r="S21">
-        <v>0.004083833595524314</v>
+        <v>0.002681951782864597</v>
       </c>
       <c r="T21">
-        <v>0.002817797725714881</v>
+        <v>0.001938989548630832</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.218968</v>
+        <v>2.641124333333333</v>
       </c>
       <c r="N22">
-        <v>6.656904000000001</v>
+        <v>7.923373</v>
       </c>
       <c r="O22">
-        <v>0.2104718379039321</v>
+        <v>0.2973163964900306</v>
       </c>
       <c r="P22">
-        <v>0.2170284397425394</v>
+        <v>0.3204448291201116</v>
       </c>
       <c r="Q22">
-        <v>621.6858481038481</v>
+        <v>57.12350217988899</v>
       </c>
       <c r="R22">
-        <v>5595.172632934633</v>
+        <v>514.111519619001</v>
       </c>
       <c r="S22">
-        <v>0.03198257519044968</v>
+        <v>0.004027657199068507</v>
       </c>
       <c r="T22">
-        <v>0.03310140785348915</v>
+        <v>0.004367855491115577</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.878757</v>
       </c>
       <c r="O23">
-        <v>0.2174861810061461</v>
+        <v>0.258118258924649</v>
       </c>
       <c r="P23">
-        <v>0.2242612930993252</v>
+        <v>0.2781974433645584</v>
       </c>
       <c r="Q23">
-        <v>642.404619241209</v>
+        <v>49.592350440201</v>
       </c>
       <c r="R23">
-        <v>5781.641573170881</v>
+        <v>446.331153961809</v>
       </c>
       <c r="S23">
-        <v>0.03304845059645324</v>
+        <v>0.003496651634561806</v>
       </c>
       <c r="T23">
-        <v>0.03420457032008325</v>
+        <v>0.003791998248031453</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.197805</v>
+        <v>0.7354653333333333</v>
       </c>
       <c r="N24">
-        <v>3.593415</v>
+        <v>2.206396</v>
       </c>
       <c r="O24">
-        <v>0.113613274188956</v>
+        <v>0.08279273334096697</v>
       </c>
       <c r="P24">
-        <v>0.1171525458076963</v>
+        <v>0.08923323301721346</v>
       </c>
       <c r="Q24">
-        <v>335.587722440355</v>
+        <v>15.906996517228</v>
       </c>
       <c r="R24">
-        <v>3020.289501963195</v>
+        <v>143.162968655052</v>
       </c>
       <c r="S24">
-        <v>0.01726428162821481</v>
+        <v>0.001121568646761418</v>
       </c>
       <c r="T24">
-        <v>0.01786823056211201</v>
+        <v>0.001216302562579781</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9555215</v>
+        <v>1.9234645</v>
       </c>
       <c r="N25">
-        <v>1.911043</v>
+        <v>3.846929</v>
       </c>
       <c r="O25">
-        <v>0.09063238688512949</v>
+        <v>0.2165280621964276</v>
       </c>
       <c r="P25">
-        <v>0.06230383982868036</v>
+        <v>0.1555812790893729</v>
       </c>
       <c r="Q25">
-        <v>267.7074180920865</v>
+        <v>41.60161154549549</v>
       </c>
       <c r="R25">
-        <v>1606.244508552519</v>
+        <v>249.609669272973</v>
       </c>
       <c r="S25">
-        <v>0.01377218518691628</v>
+        <v>0.002933241552774698</v>
       </c>
       <c r="T25">
-        <v>0.009502647742637638</v>
+        <v>0.002120666281466461</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.877612666666666</v>
+        <v>1.290238</v>
       </c>
       <c r="N26">
-        <v>11.632838</v>
+        <v>3.870714</v>
       </c>
       <c r="O26">
-        <v>0.3677963200158363</v>
+        <v>0.1452445490479259</v>
       </c>
       <c r="P26">
-        <v>0.3792538815217587</v>
+        <v>0.1565432154087437</v>
       </c>
       <c r="Q26">
-        <v>1086.386518099806</v>
+        <v>27.905885488002</v>
       </c>
       <c r="R26">
-        <v>9777.478662898255</v>
+        <v>251.152969392018</v>
       </c>
       <c r="S26">
-        <v>0.05588906134342933</v>
+        <v>0.001967584904514183</v>
       </c>
       <c r="T26">
-        <v>0.05784420432254498</v>
+        <v>0.002133778051271591</v>
       </c>
     </row>
   </sheetData>
